--- a/Andrew-annotations/DIOD_Q1_2018.xlsx
+++ b/Andrew-annotations/DIOD_Q1_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7235069E-691F-4D9B-96C9-D18DF8EF952F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A997E1-7BBE-4C7A-B016-5B0EF3D7E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -621,13 +621,13 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>2</v>
